--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s2_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1589.635913151368</v>
+        <v>1301.470284478263</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2649998664855957</v>
+        <v>0.3180000782012939</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.98076507355737</v>
+        <v>36.59143808817635</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.25280849839137</v>
+        <v>12.72978832722616</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.727956575166</v>
+        <v>11.6086347173128</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1340.120000001036</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.06</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,17 +590,6 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -874,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.93504247831764</v>
+        <v>12.28173377703765</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.60863471731278</v>
+        <v>11.61690297149402</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.86770052517324</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>22.9931254567759</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.90238894435898</v>
+        <v>10.32314874444808</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,54 +974,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1091,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>182.4780000000413</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4">
@@ -1102,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>103.2440000000043</v>
+        <v>117.6</v>
       </c>
     </row>
     <row r="5">
@@ -1113,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>151.5340000000371</v>
+        <v>65.59999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1124,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>107.7910000000066</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="7">
@@ -1135,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>145.1310000000089</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="8">
@@ -1146,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>151.5340000000575</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="9">
@@ -1157,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>182.478000000047</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>51.53400000005698</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="3">
@@ -1215,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>82.47800000004666</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1262,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.726</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3">
@@ -1273,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12.028</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -1306,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5.651999999999999</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1369,34 +1316,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
